--- a/participation/enrollment.xlsx
+++ b/participation/enrollment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0454873-E576-4625-90EC-458DCC0F80FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C71134-9CF8-447D-8EFB-EAA61155AD8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11908,15 +11908,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1847"/>
+  <dimension ref="A1:E1847"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F1849" sqref="F1849"/>
+    <sheetView tabSelected="1" topLeftCell="A707" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K721" sqref="K721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11938,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11982,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12003,8 +12006,14 @@
       <c r="C8">
         <v>1827</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12015,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12026,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -12037,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -12048,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -12059,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -12070,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -12081,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -12103,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -12114,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -12136,7 +12145,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -12147,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -12157,8 +12166,14 @@
       <c r="C22">
         <v>532</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -12169,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -12180,7 +12195,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -12191,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -12202,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -12213,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -12224,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -12235,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12246,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -12257,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -12444,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -12455,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -12466,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -12477,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -12488,7 +12503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -12498,8 +12513,14 @@
       <c r="C53">
         <v>1325</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -12510,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -12521,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -12532,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -12543,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -12554,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -12565,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -12576,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -12587,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -12598,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -12609,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -13148,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -13159,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -13170,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -13181,7 +13202,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -13192,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -13203,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -13214,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -13225,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -13236,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -13247,7 +13268,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -13258,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -13269,7 +13290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -13280,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -13291,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -13301,8 +13322,14 @@
       <c r="C126">
         <v>1294</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -13313,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -13324,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -13335,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -13346,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -13357,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -13368,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -13379,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -13390,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -13401,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -13412,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -13423,7 +13450,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -13434,7 +13461,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -13445,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -13456,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -13467,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -13477,8 +13504,14 @@
       <c r="C142">
         <v>318</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>39</v>
+      </c>
+      <c r="E142">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -13489,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -13676,7 +13709,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -13687,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -13698,7 +13731,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -13709,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -13720,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -13731,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -13742,7 +13775,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -13753,7 +13786,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -13764,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -13775,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -13786,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -13797,7 +13830,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -13808,7 +13841,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -13819,7 +13852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -13830,7 +13863,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -13841,7 +13874,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -13851,8 +13884,14 @@
       <c r="C176">
         <v>1656</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -13862,8 +13901,14 @@
       <c r="C177">
         <v>1224</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -13874,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -13885,7 +13930,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -13896,7 +13941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -13907,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -13918,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -13929,7 +13974,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -13940,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -13951,7 +13996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -13962,7 +14007,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -13973,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -13984,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -13995,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -14006,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -14017,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -14556,7 +14601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>480</v>
       </c>
@@ -14567,7 +14612,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>482</v>
       </c>
@@ -14578,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -14589,7 +14634,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>486</v>
       </c>
@@ -14600,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>488</v>
       </c>
@@ -14611,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -14622,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>492</v>
       </c>
@@ -14633,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -14644,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -14655,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>498</v>
       </c>
@@ -14666,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>500</v>
       </c>
@@ -14677,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -14688,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>504</v>
       </c>
@@ -14699,7 +14744,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>506</v>
       </c>
@@ -14710,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -14720,8 +14765,14 @@
       <c r="C255">
         <v>1223</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>12</v>
+      </c>
+      <c r="E255">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -14908,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -14919,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -14930,7 +14981,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -14941,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -14952,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -14963,7 +15014,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -14974,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -14985,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -14996,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -15007,7 +15058,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -15018,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -15029,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -15040,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -15050,8 +15101,14 @@
       <c r="C285">
         <v>313</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>34</v>
+      </c>
+      <c r="E285">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -15062,7 +15119,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -15073,7 +15130,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -15612,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>672</v>
       </c>
@@ -15623,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>674</v>
       </c>
@@ -15634,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>676</v>
       </c>
@@ -15645,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>678</v>
       </c>
@@ -15656,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>680</v>
       </c>
@@ -15667,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>682</v>
       </c>
@@ -15678,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>684</v>
       </c>
@@ -15689,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>686</v>
       </c>
@@ -15700,7 +15757,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -15711,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>690</v>
       </c>
@@ -15722,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>692</v>
       </c>
@@ -15733,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>694</v>
       </c>
@@ -15743,8 +15800,14 @@
       <c r="C348">
         <v>2044</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>37</v>
+      </c>
+      <c r="E348">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>696</v>
       </c>
@@ -15755,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>698</v>
       </c>
@@ -15766,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>700</v>
       </c>
@@ -15777,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>702</v>
       </c>
@@ -16668,7 +16731,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>864</v>
       </c>
@@ -16679,7 +16742,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>866</v>
       </c>
@@ -16690,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>868</v>
       </c>
@@ -16701,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>870</v>
       </c>
@@ -16712,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>872</v>
       </c>
@@ -16723,7 +16786,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>874</v>
       </c>
@@ -16734,7 +16797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>876</v>
       </c>
@@ -16744,8 +16807,14 @@
       <c r="C439">
         <v>469</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>33</v>
+      </c>
+      <c r="E439">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>878</v>
       </c>
@@ -16756,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>880</v>
       </c>
@@ -16767,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>882</v>
       </c>
@@ -16778,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>884</v>
       </c>
@@ -16788,8 +16857,14 @@
       <c r="C443">
         <v>201</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443">
+        <v>23</v>
+      </c>
+      <c r="E443">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>886</v>
       </c>
@@ -16800,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>888</v>
       </c>
@@ -16811,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>890</v>
       </c>
@@ -16822,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>892</v>
       </c>
@@ -16833,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>894</v>
       </c>
@@ -16844,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>896</v>
       </c>
@@ -16855,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>898</v>
       </c>
@@ -16866,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>900</v>
       </c>
@@ -16876,8 +16951,14 @@
       <c r="C451">
         <v>1273</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>45</v>
+      </c>
+      <c r="E451">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>902</v>
       </c>
@@ -16888,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>904</v>
       </c>
@@ -16899,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>906</v>
       </c>
@@ -16910,7 +16991,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>908</v>
       </c>
@@ -16921,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>910</v>
       </c>
@@ -16932,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>912</v>
       </c>
@@ -16943,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>914</v>
       </c>
@@ -16954,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>916</v>
       </c>
@@ -16965,7 +17046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>918</v>
       </c>
@@ -16976,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>920</v>
       </c>
@@ -16987,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>922</v>
       </c>
@@ -16998,7 +17079,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>924</v>
       </c>
@@ -17009,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>926</v>
       </c>
@@ -17196,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>960</v>
       </c>
@@ -17207,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>962</v>
       </c>
@@ -17218,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>964</v>
       </c>
@@ -17229,7 +17310,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>966</v>
       </c>
@@ -17240,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>968</v>
       </c>
@@ -17251,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>970</v>
       </c>
@@ -17262,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>972</v>
       </c>
@@ -17273,7 +17354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>974</v>
       </c>
@@ -17284,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>976</v>
       </c>
@@ -17295,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>978</v>
       </c>
@@ -17306,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>980</v>
       </c>
@@ -17316,8 +17397,14 @@
       <c r="C491">
         <v>665</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>7</v>
+      </c>
+      <c r="E491">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>982</v>
       </c>
@@ -17328,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>984</v>
       </c>
@@ -17339,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>986</v>
       </c>
@@ -17350,7 +17437,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>988</v>
       </c>
@@ -17361,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>990</v>
       </c>
@@ -17372,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>992</v>
       </c>
@@ -17383,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>994</v>
       </c>
@@ -17394,7 +17481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>996</v>
       </c>
@@ -17405,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>998</v>
       </c>
@@ -17416,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1000</v>
       </c>
@@ -17427,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1002</v>
       </c>
@@ -17438,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1004</v>
       </c>
@@ -17449,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1006</v>
       </c>
@@ -17460,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1008</v>
       </c>
@@ -17471,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1010</v>
       </c>
@@ -17482,7 +17569,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1012</v>
       </c>
@@ -17493,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1014</v>
       </c>
@@ -17504,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1016</v>
       </c>
@@ -17514,8 +17601,14 @@
       <c r="C509">
         <v>1053</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D509">
+        <v>41</v>
+      </c>
+      <c r="E509">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1018</v>
       </c>
@@ -17526,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1020</v>
       </c>
@@ -17537,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1022</v>
       </c>
@@ -19308,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1344</v>
       </c>
@@ -19319,7 +19412,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1346</v>
       </c>
@@ -19330,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1348</v>
       </c>
@@ -19341,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1350</v>
       </c>
@@ -19352,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1352</v>
       </c>
@@ -19363,7 +19456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1354</v>
       </c>
@@ -19374,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1356</v>
       </c>
@@ -19385,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1358</v>
       </c>
@@ -19396,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1360</v>
       </c>
@@ -19406,8 +19499,14 @@
       <c r="C681">
         <v>560</v>
       </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D681">
+        <v>36</v>
+      </c>
+      <c r="E681">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1362</v>
       </c>
@@ -19418,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1364</v>
       </c>
@@ -19429,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1366</v>
       </c>
@@ -19440,7 +19539,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1368</v>
       </c>
@@ -19451,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1370</v>
       </c>
@@ -19462,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1372</v>
       </c>
@@ -19473,7 +19572,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1374</v>
       </c>
@@ -19484,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1376</v>
       </c>
@@ -19495,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1378</v>
       </c>
@@ -19506,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1380</v>
       </c>
@@ -19517,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1382</v>
       </c>
@@ -19528,7 +19627,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1384</v>
       </c>
@@ -19539,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1386</v>
       </c>
@@ -19550,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1388</v>
       </c>
@@ -19561,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1390</v>
       </c>
@@ -19572,7 +19671,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1392</v>
       </c>
@@ -19583,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1394</v>
       </c>
@@ -19594,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1396</v>
       </c>
@@ -19604,8 +19703,14 @@
       <c r="C699">
         <v>402</v>
       </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D699">
+        <v>8</v>
+      </c>
+      <c r="E699">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1398</v>
       </c>
@@ -19616,7 +19721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1400</v>
       </c>
@@ -19627,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1402</v>
       </c>
@@ -19638,7 +19743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1404</v>
       </c>
@@ -19649,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1406</v>
       </c>
@@ -19836,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1440</v>
       </c>
@@ -19847,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1442</v>
       </c>
@@ -19858,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1444</v>
       </c>
@@ -19869,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1446</v>
       </c>
@@ -19879,8 +19984,14 @@
       <c r="C724">
         <v>1252</v>
       </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D724">
+        <v>50</v>
+      </c>
+      <c r="E724">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1448</v>
       </c>
@@ -19891,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1450</v>
       </c>
@@ -19902,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1452</v>
       </c>
@@ -19913,7 +20024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1454</v>
       </c>
@@ -19924,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1456</v>
       </c>
@@ -19935,7 +20046,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1458</v>
       </c>
@@ -19946,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1460</v>
       </c>
@@ -19957,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1462</v>
       </c>
@@ -19967,8 +20078,14 @@
       <c r="C732">
         <v>794</v>
       </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D732">
+        <v>46</v>
+      </c>
+      <c r="E732">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1464</v>
       </c>
@@ -19979,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1466</v>
       </c>
@@ -19990,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1468</v>
       </c>
@@ -20001,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1470</v>
       </c>
@@ -20188,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1504</v>
       </c>
@@ -20199,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1506</v>
       </c>
@@ -20209,8 +20326,14 @@
       <c r="C754">
         <v>1153</v>
       </c>
-    </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D754">
+        <v>6</v>
+      </c>
+      <c r="E754">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1508</v>
       </c>
@@ -20221,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1510</v>
       </c>
@@ -20232,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1512</v>
       </c>
@@ -20243,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1514</v>
       </c>
@@ -20254,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1516</v>
       </c>
@@ -20265,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1518</v>
       </c>
@@ -20276,7 +20399,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1520</v>
       </c>
@@ -20287,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1522</v>
       </c>
@@ -20298,7 +20421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1524</v>
       </c>
@@ -20309,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1526</v>
       </c>
@@ -20320,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1528</v>
       </c>
@@ -20331,7 +20454,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1530</v>
       </c>
@@ -20342,7 +20465,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1532</v>
       </c>
@@ -20353,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1534</v>
       </c>
@@ -20364,7 +20487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1536</v>
       </c>
@@ -20375,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1538</v>
       </c>
@@ -20386,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1540</v>
       </c>
@@ -20397,7 +20520,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1542</v>
       </c>
@@ -20408,7 +20531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1544</v>
       </c>
@@ -20419,7 +20542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1546</v>
       </c>
@@ -20430,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1548</v>
       </c>
@@ -20440,8 +20563,14 @@
       <c r="C775">
         <v>483</v>
       </c>
-    </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D775">
+        <v>43</v>
+      </c>
+      <c r="E775">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1550</v>
       </c>
@@ -20452,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1552</v>
       </c>
@@ -20463,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1554</v>
       </c>
@@ -20474,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1556</v>
       </c>
@@ -20485,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1558</v>
       </c>
@@ -20496,7 +20625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1560</v>
       </c>
@@ -20507,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1562</v>
       </c>
@@ -20518,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1564</v>
       </c>
@@ -20529,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1566</v>
       </c>
@@ -20716,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1600</v>
       </c>
@@ -20727,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1602</v>
       </c>
@@ -20738,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1604</v>
       </c>
@@ -20749,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1606</v>
       </c>
@@ -20760,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1608</v>
       </c>
@@ -20771,7 +20900,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1610</v>
       </c>
@@ -20782,7 +20911,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1612</v>
       </c>
@@ -20793,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1614</v>
       </c>
@@ -20804,7 +20933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1616</v>
       </c>
@@ -20815,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1618</v>
       </c>
@@ -20825,8 +20954,14 @@
       <c r="C810">
         <v>245</v>
       </c>
-    </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D810">
+        <v>32</v>
+      </c>
+      <c r="E810">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1620</v>
       </c>
@@ -20837,7 +20972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1622</v>
       </c>
@@ -20848,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1624</v>
       </c>
@@ -20859,7 +20994,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1626</v>
       </c>
@@ -20870,7 +21005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1628</v>
       </c>
@@ -20881,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1630</v>
       </c>
@@ -20892,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1632</v>
       </c>
@@ -20903,7 +21038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1634</v>
       </c>
@@ -20914,7 +21049,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1636</v>
       </c>
@@ -20925,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1638</v>
       </c>
@@ -20936,7 +21071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1640</v>
       </c>
@@ -20947,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1642</v>
       </c>
@@ -20958,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1644</v>
       </c>
@@ -20969,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1646</v>
       </c>
@@ -20980,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1648</v>
       </c>
@@ -20991,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1650</v>
       </c>
@@ -21002,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1652</v>
       </c>
@@ -21013,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1654</v>
       </c>
@@ -21024,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1656</v>
       </c>
@@ -21035,7 +21170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1658</v>
       </c>
@@ -21046,7 +21181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1660</v>
       </c>
@@ -21057,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1662</v>
       </c>
@@ -21066,6 +21201,12 @@
       </c>
       <c r="C832">
         <v>2212</v>
+      </c>
+      <c r="D832">
+        <v>4</v>
+      </c>
+      <c r="E832">
+        <v>255</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -21948,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>1824</v>
       </c>
@@ -21959,7 +22100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1826</v>
       </c>
@@ -21970,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1828</v>
       </c>
@@ -21980,8 +22121,14 @@
       <c r="C915">
         <v>648</v>
       </c>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D915">
+        <v>31</v>
+      </c>
+      <c r="E915">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1830</v>
       </c>
@@ -21992,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1832</v>
       </c>
@@ -22003,7 +22150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1834</v>
       </c>
@@ -22014,7 +22161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1836</v>
       </c>
@@ -22025,7 +22172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1838</v>
       </c>
@@ -22036,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1840</v>
       </c>
@@ -22047,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1842</v>
       </c>
@@ -22058,7 +22205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1844</v>
       </c>
@@ -22069,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1846</v>
       </c>
@@ -22080,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1848</v>
       </c>
@@ -22091,7 +22238,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1850</v>
       </c>
@@ -22102,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1852</v>
       </c>
@@ -22113,7 +22260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1854</v>
       </c>
@@ -22122,6 +22269,12 @@
       </c>
       <c r="C928">
         <v>443</v>
+      </c>
+      <c r="D928">
+        <v>10</v>
+      </c>
+      <c r="E928">
+        <v>417</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
@@ -22476,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1920</v>
       </c>
@@ -22487,7 +22640,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1922</v>
       </c>
@@ -22498,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1924</v>
       </c>
@@ -22509,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1926</v>
       </c>
@@ -22520,7 +22673,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1928</v>
       </c>
@@ -22531,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1930</v>
       </c>
@@ -22542,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1932</v>
       </c>
@@ -22552,8 +22705,14 @@
       <c r="C967">
         <v>321</v>
       </c>
-    </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D967">
+        <v>44</v>
+      </c>
+      <c r="E967">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1934</v>
       </c>
@@ -22564,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1936</v>
       </c>
@@ -22575,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1938</v>
       </c>
@@ -22586,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1940</v>
       </c>
@@ -22597,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>1942</v>
       </c>
@@ -22608,7 +22767,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1944</v>
       </c>
@@ -22619,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1946</v>
       </c>
@@ -22629,8 +22788,14 @@
       <c r="C974">
         <v>828</v>
       </c>
-    </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D974">
+        <v>20</v>
+      </c>
+      <c r="E974">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1948</v>
       </c>
@@ -22641,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1950</v>
       </c>
@@ -22652,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1952</v>
       </c>
@@ -22663,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1954</v>
       </c>
@@ -22674,7 +22839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1956</v>
       </c>
@@ -22685,7 +22850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1958</v>
       </c>
@@ -22696,7 +22861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1960</v>
       </c>
@@ -22707,7 +22872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1962</v>
       </c>
@@ -22718,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1964</v>
       </c>
@@ -22729,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>1966</v>
       </c>
@@ -22740,7 +22905,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1968</v>
       </c>
@@ -22751,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>1970</v>
       </c>
@@ -22762,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>1972</v>
       </c>
@@ -22773,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1974</v>
       </c>
@@ -22783,8 +22948,14 @@
       <c r="C988">
         <v>728</v>
       </c>
-    </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D988">
+        <v>24</v>
+      </c>
+      <c r="E988">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1976</v>
       </c>
@@ -22795,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>1978</v>
       </c>
@@ -22806,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1980</v>
       </c>
@@ -22817,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>1982</v>
       </c>
@@ -23004,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>2016</v>
       </c>
@@ -23015,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>2018</v>
       </c>
@@ -23026,7 +23197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>2020</v>
       </c>
@@ -23037,7 +23208,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>2022</v>
       </c>
@@ -23048,7 +23219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>2024</v>
       </c>
@@ -23059,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>2026</v>
       </c>
@@ -23070,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>2028</v>
       </c>
@@ -23081,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>2030</v>
       </c>
@@ -23092,7 +23263,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>2032</v>
       </c>
@@ -23103,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>2034</v>
       </c>
@@ -23114,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>2036</v>
       </c>
@@ -23125,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>2038</v>
       </c>
@@ -23136,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>2040</v>
       </c>
@@ -23147,7 +23318,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>2042</v>
       </c>
@@ -23158,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>2044</v>
       </c>
@@ -23169,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>2046</v>
       </c>
@@ -23178,6 +23349,12 @@
       </c>
       <c r="C1024">
         <v>393</v>
+      </c>
+      <c r="D1024">
+        <v>48</v>
+      </c>
+      <c r="E1024">
+        <v>1099</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
@@ -23356,7 +23533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>2080</v>
       </c>
@@ -23367,7 +23544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>2082</v>
       </c>
@@ -23378,7 +23555,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>2084</v>
       </c>
@@ -23389,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>2086</v>
       </c>
@@ -23400,7 +23577,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>2088</v>
       </c>
@@ -23411,7 +23588,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>2090</v>
       </c>
@@ -23421,8 +23598,14 @@
       <c r="C1046">
         <v>365</v>
       </c>
-    </row>
-    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1046">
+        <v>11</v>
+      </c>
+      <c r="E1046">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>2092</v>
       </c>
@@ -23433,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>2094</v>
       </c>
@@ -23444,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>2096</v>
       </c>
@@ -23455,7 +23638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>2098</v>
       </c>
@@ -23466,7 +23649,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>2100</v>
       </c>
@@ -23477,7 +23660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>2102</v>
       </c>
@@ -23488,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>2104</v>
       </c>
@@ -23499,7 +23682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>2106</v>
       </c>
@@ -23510,7 +23693,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>2108</v>
       </c>
@@ -23521,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>2110</v>
       </c>
@@ -23532,7 +23715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>2112</v>
       </c>
@@ -23543,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>2114</v>
       </c>
@@ -23554,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>2116</v>
       </c>
@@ -23565,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>2118</v>
       </c>
@@ -23576,7 +23759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>2120</v>
       </c>
@@ -23587,7 +23770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>2122</v>
       </c>
@@ -23597,8 +23780,14 @@
       <c r="C1062">
         <v>976</v>
       </c>
-    </row>
-    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1062">
+        <v>17</v>
+      </c>
+      <c r="E1062">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>2124</v>
       </c>
@@ -23609,7 +23798,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>2126</v>
       </c>
@@ -23620,7 +23809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>2128</v>
       </c>
@@ -23631,7 +23820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>2130</v>
       </c>
@@ -23642,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>2132</v>
       </c>
@@ -23653,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>2134</v>
       </c>
@@ -23664,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>2136</v>
       </c>
@@ -23675,7 +23864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>2138</v>
       </c>
@@ -23686,7 +23875,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>2140</v>
       </c>
@@ -23697,7 +23886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>2142</v>
       </c>
@@ -23707,8 +23896,14 @@
       <c r="C1072">
         <v>907</v>
       </c>
-    </row>
-    <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1072">
+        <v>26</v>
+      </c>
+      <c r="E1072">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>2144</v>
       </c>
@@ -23719,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>2146</v>
       </c>
@@ -23730,7 +23925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>2148</v>
       </c>
@@ -23741,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>2150</v>
       </c>
@@ -23752,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>2152</v>
       </c>
@@ -23763,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>2154</v>
       </c>
@@ -23773,8 +23968,14 @@
       <c r="C1078">
         <v>1686</v>
       </c>
-    </row>
-    <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1078">
+        <v>28</v>
+      </c>
+      <c r="E1078">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>2156</v>
       </c>
@@ -23785,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>2158</v>
       </c>
@@ -23796,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>2160</v>
       </c>
@@ -23807,7 +24008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>2162</v>
       </c>
@@ -23818,7 +24019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>2164</v>
       </c>
@@ -23829,7 +24030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>2166</v>
       </c>
@@ -23840,7 +24041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>2168</v>
       </c>
@@ -23851,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>2170</v>
       </c>
@@ -23862,7 +24063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>2172</v>
       </c>
@@ -23873,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>2174</v>
       </c>
@@ -24236,7 +24437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>2240</v>
       </c>
@@ -24247,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>2242</v>
       </c>
@@ -24258,7 +24459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
         <v>2244</v>
       </c>
@@ -24269,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>2246</v>
       </c>
@@ -24280,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>2248</v>
       </c>
@@ -24291,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>2250</v>
       </c>
@@ -24302,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>2252</v>
       </c>
@@ -24313,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>2254</v>
       </c>
@@ -24324,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
         <v>2256</v>
       </c>
@@ -24334,8 +24535,14 @@
       <c r="C1129">
         <v>2121</v>
       </c>
-    </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1129">
+        <v>28</v>
+      </c>
+      <c r="E1129">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>2258</v>
       </c>
@@ -24345,8 +24552,14 @@
       <c r="C1130">
         <v>1892</v>
       </c>
-    </row>
-    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1130">
+        <v>29</v>
+      </c>
+      <c r="E1130">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>2260</v>
       </c>
@@ -24357,7 +24570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>2262</v>
       </c>
@@ -24368,7 +24581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>2264</v>
       </c>
@@ -24379,7 +24592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>2266</v>
       </c>
@@ -24390,7 +24603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
         <v>2268</v>
       </c>
@@ -24401,7 +24614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>2270</v>
       </c>
@@ -24764,7 +24977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>2336</v>
       </c>
@@ -24775,7 +24988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>2338</v>
       </c>
@@ -24786,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>2340</v>
       </c>
@@ -24797,7 +25010,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>2342</v>
       </c>
@@ -24808,7 +25021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>2344</v>
       </c>
@@ -24819,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>2346</v>
       </c>
@@ -24830,7 +25043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>2348</v>
       </c>
@@ -24841,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>2350</v>
       </c>
@@ -24852,7 +25065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>2352</v>
       </c>
@@ -24863,7 +25076,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>2354</v>
       </c>
@@ -24874,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>2356</v>
       </c>
@@ -24885,7 +25098,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>2358</v>
       </c>
@@ -24895,8 +25108,14 @@
       <c r="C1180">
         <v>1463</v>
       </c>
-    </row>
-    <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1180">
+        <v>42</v>
+      </c>
+      <c r="E1180">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>2360</v>
       </c>
@@ -24907,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>2362</v>
       </c>
@@ -24918,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>2364</v>
       </c>
@@ -24929,7 +25148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>2366</v>
       </c>
@@ -24940,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>2368</v>
       </c>
@@ -24951,7 +25170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>2370</v>
       </c>
@@ -24962,7 +25181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>2372</v>
       </c>
@@ -24973,7 +25192,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>2374</v>
       </c>
@@ -24984,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>2376</v>
       </c>
@@ -24995,7 +25214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>2378</v>
       </c>
@@ -25006,7 +25225,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>2380</v>
       </c>
@@ -25017,7 +25236,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>2382</v>
       </c>
@@ -25028,7 +25247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>2384</v>
       </c>
@@ -25039,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>2386</v>
       </c>
@@ -25050,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
         <v>2388</v>
       </c>
@@ -25061,7 +25280,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
         <v>2390</v>
       </c>
@@ -25072,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>2392</v>
       </c>
@@ -25083,7 +25302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
         <v>2394</v>
       </c>
@@ -25093,8 +25312,14 @@
       <c r="C1198">
         <v>695</v>
       </c>
-    </row>
-    <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1198">
+        <v>22</v>
+      </c>
+      <c r="E1198">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>2396</v>
       </c>
@@ -25105,7 +25330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>2398</v>
       </c>
@@ -25644,7 +25869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
         <v>2496</v>
       </c>
@@ -25655,7 +25880,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
         <v>2498</v>
       </c>
@@ -25666,7 +25891,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
         <v>2500</v>
       </c>
@@ -25676,8 +25901,14 @@
       <c r="C1251">
         <v>198</v>
       </c>
-    </row>
-    <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1251">
+        <v>18</v>
+      </c>
+      <c r="E1251">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
         <v>2502</v>
       </c>
@@ -25688,7 +25919,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
         <v>2504</v>
       </c>
@@ -25699,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
         <v>2506</v>
       </c>
@@ -25710,7 +25941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>2508</v>
       </c>
@@ -25721,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
         <v>2510</v>
       </c>
@@ -25732,7 +25963,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
         <v>2512</v>
       </c>
@@ -25743,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
         <v>2514</v>
       </c>
@@ -25754,7 +25985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
         <v>2516</v>
       </c>
@@ -25765,7 +25996,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
         <v>2518</v>
       </c>
@@ -25776,7 +26007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
         <v>2520</v>
       </c>
@@ -25787,7 +26018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
         <v>2522</v>
       </c>
@@ -25798,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
         <v>2524</v>
       </c>
@@ -25809,7 +26040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
         <v>2526</v>
       </c>
@@ -27052,7 +27283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
         <v>2752</v>
       </c>
@@ -27063,7 +27294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
         <v>2754</v>
       </c>
@@ -27074,7 +27305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
         <v>2756</v>
       </c>
@@ -27085,7 +27316,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
         <v>2758</v>
       </c>
@@ -27096,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
         <v>2760</v>
       </c>
@@ -27107,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
         <v>2762</v>
       </c>
@@ -27118,7 +27349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
         <v>2764</v>
       </c>
@@ -27129,7 +27360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
         <v>2766</v>
       </c>
@@ -27140,7 +27371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
         <v>2768</v>
       </c>
@@ -27151,7 +27382,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
         <v>2770</v>
       </c>
@@ -27162,7 +27393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
         <v>2772</v>
       </c>
@@ -27173,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
         <v>2774</v>
       </c>
@@ -27184,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
         <v>2776</v>
       </c>
@@ -27195,7 +27426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
         <v>2778</v>
       </c>
@@ -27206,7 +27437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
         <v>2780</v>
       </c>
@@ -27217,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
         <v>2782</v>
       </c>
@@ -27227,8 +27458,14 @@
       <c r="C1392">
         <v>921</v>
       </c>
-    </row>
-    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1392">
+        <v>40</v>
+      </c>
+      <c r="E1392">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
         <v>2784</v>
       </c>
@@ -27239,7 +27476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
         <v>2786</v>
       </c>
@@ -27250,7 +27487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
         <v>2788</v>
       </c>
@@ -27261,7 +27498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
         <v>2790</v>
       </c>
@@ -27272,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
         <v>2792</v>
       </c>
@@ -27283,7 +27520,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
         <v>2794</v>
       </c>
@@ -27294,7 +27531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>2796</v>
       </c>
@@ -27305,7 +27542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
         <v>2798</v>
       </c>
@@ -27316,7 +27553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>2800</v>
       </c>
@@ -27327,7 +27564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>2802</v>
       </c>
@@ -27338,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>2804</v>
       </c>
@@ -27348,8 +27585,14 @@
       <c r="C1403">
         <v>1079</v>
       </c>
-    </row>
-    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1403">
+        <v>35</v>
+      </c>
+      <c r="E1403">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>2806</v>
       </c>
@@ -27360,7 +27603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>2808</v>
       </c>
@@ -27371,7 +27614,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
         <v>2810</v>
       </c>
@@ -27382,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>2812</v>
       </c>
@@ -27393,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
         <v>2814</v>
       </c>
@@ -27404,7 +27647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
         <v>2816</v>
       </c>
@@ -27415,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
         <v>2818</v>
       </c>
@@ -27426,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
         <v>2820</v>
       </c>
@@ -27437,7 +27680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
         <v>2822</v>
       </c>
@@ -27448,7 +27691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
         <v>2824</v>
       </c>
@@ -27458,8 +27701,14 @@
       <c r="C1413">
         <v>1831</v>
       </c>
-    </row>
-    <row r="1414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1413">
+        <v>47</v>
+      </c>
+      <c r="E1413">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
         <v>2826</v>
       </c>
@@ -27470,7 +27719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
         <v>2828</v>
       </c>
@@ -27481,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
         <v>2830</v>
       </c>
@@ -27492,7 +27741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
         <v>2832</v>
       </c>
@@ -27503,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
         <v>2834</v>
       </c>
@@ -27514,7 +27763,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
         <v>2836</v>
       </c>
@@ -27525,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
         <v>2838</v>
       </c>
@@ -27536,7 +27785,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
         <v>2840</v>
       </c>
@@ -27547,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
         <v>2842</v>
       </c>
@@ -27558,7 +27807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
         <v>2844</v>
       </c>
@@ -27569,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
         <v>2846</v>
       </c>
@@ -28812,7 +29061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
         <v>3072</v>
       </c>
@@ -28823,7 +29072,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
         <v>3074</v>
       </c>
@@ -28834,7 +29083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
         <v>3076</v>
       </c>
@@ -28845,7 +29094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
         <v>3078</v>
       </c>
@@ -28855,8 +29104,14 @@
       <c r="C1540">
         <v>816</v>
       </c>
-    </row>
-    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1540">
+        <v>3</v>
+      </c>
+      <c r="E1540">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
         <v>3080</v>
       </c>
@@ -28867,7 +29122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
         <v>3082</v>
       </c>
@@ -28878,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
         <v>3084</v>
       </c>
@@ -28889,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
         <v>3086</v>
       </c>
@@ -28900,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
         <v>3088</v>
       </c>
@@ -28911,7 +29166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
         <v>3090</v>
       </c>
@@ -28922,7 +29177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
         <v>3092</v>
       </c>
@@ -28933,7 +29188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
         <v>3094</v>
       </c>
@@ -28944,7 +29199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
         <v>3096</v>
       </c>
@@ -28955,7 +29210,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
         <v>3098</v>
       </c>
@@ -28966,7 +29221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
         <v>3100</v>
       </c>
@@ -28977,7 +29232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1552" t="s">
         <v>3102</v>
       </c>
@@ -28988,7 +29243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
         <v>3104</v>
       </c>
@@ -28999,7 +29254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
         <v>3106</v>
       </c>
@@ -29009,8 +29264,14 @@
       <c r="C1554">
         <v>673</v>
       </c>
-    </row>
-    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1554">
+        <v>49</v>
+      </c>
+      <c r="E1554">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
         <v>3108</v>
       </c>
@@ -29021,7 +29282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
         <v>3110</v>
       </c>
@@ -29032,7 +29293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
         <v>3112</v>
       </c>
@@ -29043,7 +29304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
         <v>3114</v>
       </c>
@@ -29054,7 +29315,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
         <v>3116</v>
       </c>
@@ -29065,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
         <v>3118</v>
       </c>
@@ -29076,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
         <v>3120</v>
       </c>
@@ -29087,7 +29348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
         <v>3122</v>
       </c>
@@ -29098,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
         <v>3124</v>
       </c>
@@ -29109,7 +29370,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
         <v>3126</v>
       </c>
@@ -29120,7 +29381,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
         <v>3128</v>
       </c>
@@ -29131,7 +29392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
         <v>3130</v>
       </c>
@@ -29142,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
         <v>3132</v>
       </c>
@@ -29153,7 +29414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
         <v>3134</v>
       </c>
@@ -30220,7 +30481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
         <v>3328</v>
       </c>
@@ -30230,8 +30491,14 @@
       <c r="C1665">
         <v>856</v>
       </c>
-    </row>
-    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1665">
+        <v>14</v>
+      </c>
+      <c r="E1665">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
         <v>3330</v>
       </c>
@@ -30242,7 +30509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
         <v>3332</v>
       </c>
@@ -30253,7 +30520,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
         <v>3334</v>
       </c>
@@ -30264,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
         <v>3336</v>
       </c>
@@ -30275,7 +30542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
         <v>3338</v>
       </c>
@@ -30286,7 +30553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
         <v>3340</v>
       </c>
@@ -30297,7 +30564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
         <v>3342</v>
       </c>
@@ -30308,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
         <v>3344</v>
       </c>
@@ -30319,7 +30586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
         <v>3346</v>
       </c>
@@ -30330,7 +30597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
         <v>3348</v>
       </c>
@@ -30341,7 +30608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
         <v>3350</v>
       </c>
@@ -30352,7 +30619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
         <v>3352</v>
       </c>
@@ -30363,7 +30630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
         <v>3354</v>
       </c>
@@ -30373,8 +30640,14 @@
       <c r="C1678">
         <v>1569</v>
       </c>
-    </row>
-    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1678">
+        <v>19</v>
+      </c>
+      <c r="E1678">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
         <v>3356</v>
       </c>
@@ -30385,7 +30658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
         <v>3358</v>
       </c>
@@ -30572,7 +30845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>3392</v>
       </c>
@@ -30583,7 +30856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>3394</v>
       </c>
@@ -30594,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>3396</v>
       </c>
@@ -30605,7 +30878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>3398</v>
       </c>
@@ -30616,7 +30889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>3400</v>
       </c>
@@ -30626,8 +30899,14 @@
       <c r="C1701">
         <v>1131</v>
       </c>
-    </row>
-    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1701">
+        <v>15</v>
+      </c>
+      <c r="E1701">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
         <v>3402</v>
       </c>
@@ -30638,7 +30917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
         <v>3404</v>
       </c>
@@ -30649,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
         <v>3406</v>
       </c>
@@ -30660,7 +30939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>3408</v>
       </c>
@@ -30671,7 +30950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
         <v>3410</v>
       </c>
@@ -30682,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
         <v>3412</v>
       </c>
@@ -30693,7 +30972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
         <v>3414</v>
       </c>
@@ -30704,7 +30983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
         <v>3416</v>
       </c>
@@ -30715,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
         <v>3418</v>
       </c>
@@ -30726,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>3420</v>
       </c>
@@ -30737,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
         <v>3422</v>
       </c>
@@ -30748,7 +31027,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="1713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
         <v>3424</v>
       </c>
@@ -30759,7 +31038,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="1714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
         <v>3426</v>
       </c>
@@ -30770,7 +31049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
         <v>3428</v>
       </c>
@@ -30781,7 +31060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
         <v>3430</v>
       </c>
@@ -30792,7 +31071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
         <v>3432</v>
       </c>
@@ -30803,7 +31082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
         <v>3434</v>
       </c>
@@ -30814,7 +31093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
         <v>3436</v>
       </c>
@@ -30825,7 +31104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
         <v>3438</v>
       </c>
@@ -30836,7 +31115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
         <v>3440</v>
       </c>
@@ -30847,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
         <v>3442</v>
       </c>
@@ -30858,7 +31137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
         <v>3444</v>
       </c>
@@ -30868,8 +31147,14 @@
       <c r="C1723">
         <v>1711</v>
       </c>
-    </row>
-    <row r="1724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1723">
+        <v>38</v>
+      </c>
+      <c r="E1723">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1724" t="s">
         <v>3446</v>
       </c>
@@ -30880,7 +31165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
         <v>3448</v>
       </c>
@@ -30891,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1726" t="s">
         <v>3450</v>
       </c>
@@ -30902,7 +31187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
         <v>3452</v>
       </c>
@@ -30912,8 +31197,14 @@
       <c r="C1727">
         <v>693</v>
       </c>
-    </row>
-    <row r="1728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1727">
+        <v>21</v>
+      </c>
+      <c r="E1727">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
         <v>3454</v>
       </c>
@@ -30924,7 +31215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
         <v>3456</v>
       </c>
@@ -30935,7 +31226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1730" t="s">
         <v>3458</v>
       </c>
@@ -30946,7 +31237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
         <v>3460</v>
       </c>
@@ -30957,7 +31248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
         <v>3462</v>
       </c>
@@ -30968,7 +31259,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
         <v>3464</v>
       </c>
@@ -30979,7 +31270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
         <v>3466</v>
       </c>
@@ -30990,7 +31281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1735" t="s">
         <v>3468</v>
       </c>
@@ -31001,7 +31292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
         <v>3470</v>
       </c>
@@ -31012,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
         <v>3472</v>
       </c>
@@ -31023,7 +31314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
         <v>3474</v>
       </c>
@@ -31033,8 +31324,14 @@
       <c r="C1738">
         <v>999</v>
       </c>
-    </row>
-    <row r="1739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1738">
+        <v>13</v>
+      </c>
+      <c r="E1738">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
         <v>3476</v>
       </c>
@@ -31045,7 +31342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
         <v>3478</v>
       </c>
@@ -31056,7 +31353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
         <v>3480</v>
       </c>
@@ -31067,7 +31364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
         <v>3482</v>
       </c>
@@ -31078,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
         <v>3484</v>
       </c>
@@ -31089,7 +31386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
         <v>3486</v>
       </c>
@@ -31452,7 +31749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
         <v>3552</v>
       </c>
@@ -31463,7 +31760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
         <v>3554</v>
       </c>
@@ -31474,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
         <v>3556</v>
       </c>
@@ -31485,7 +31782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1780" t="s">
         <v>3558</v>
       </c>
@@ -31496,7 +31793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1781" t="s">
         <v>3560</v>
       </c>
@@ -31507,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
         <v>3562</v>
       </c>
@@ -31518,7 +31815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
         <v>3564</v>
       </c>
@@ -31529,7 +31826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
         <v>3566</v>
       </c>
@@ -31539,8 +31836,14 @@
       <c r="C1784">
         <v>1351</v>
       </c>
-    </row>
-    <row r="1785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1784">
+        <v>16</v>
+      </c>
+      <c r="E1784">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
         <v>3568</v>
       </c>
@@ -31551,7 +31854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
         <v>3570</v>
       </c>
@@ -31562,7 +31865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
         <v>3572</v>
       </c>
@@ -31573,7 +31876,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="1788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
         <v>3574</v>
       </c>
@@ -31584,7 +31887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
         <v>3576</v>
       </c>
@@ -31595,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
         <v>3578</v>
       </c>
@@ -31606,7 +31909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
         <v>3580</v>
       </c>
@@ -31617,7 +31920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
         <v>3582</v>
       </c>

--- a/participation/enrollment.xlsx
+++ b/participation/enrollment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C71134-9CF8-447D-8EFB-EAA61155AD8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96865715-C40F-4579-AB79-913E1DCBA661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11910,8 +11910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A707" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K721" sqref="K721"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11929,6 +11929,12 @@
       <c r="C1">
         <v>364</v>
       </c>
+      <c r="D1">
+        <v>71</v>
+      </c>
+      <c r="E1">
+        <v>1684</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
